--- a/modelagem/Resultados_2018 1ª abordagem/9. Setembro/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/9. Setembro/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,13 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.044871297064783</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.522210926385814</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.533761698647339</v>
+        <v>0.07829210878271577</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.893182057815373</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.120965174824413</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.888862118529671</v>
+        <v>0.07131567069220057</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.345209134912805</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.181030369744545</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.464419434263683</v>
+        <v>0.1500950857753122</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.714797024036443</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7227801313303799</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8592568920303675</v>
+        <v>0.1585319022998381</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.513086023068305</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.658278823199161</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.29007820526946</v>
+        <v>0.143161836921586</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.156543567466486</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4876336536102688</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9158831583550567</v>
+        <v>0.09951310359730889</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6784184171722254</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4622454564649163</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4912290976433694</v>
+        <v>0.1119114756408047</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.169633369384226</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.346862461657175</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.707516401208737</v>
+        <v>0.1593135785005963</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9562352841389867</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7055137747388014</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.620820960235365</v>
+        <v>0.07472380512149439</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.022771301041361</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6514290161624859</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.041948647802953</v>
+        <v>0.1809082676086308</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.091168710899133</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.371769574601764</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.763904812810106</v>
+        <v>0.03013638594890245</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.128913938244769</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.806383651826317</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.057080170405747</v>
+        <v>0.1242492641747936</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.768160816663334</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.56215602526111</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.915195574201736</v>
+        <v>0.2063019185610994</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.647008497257543</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.709262050941753</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.30334239703886</v>
+        <v>0.108284778514029</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.455855701116881</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.716692537979287</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8679053766884879</v>
+        <v>0.1501984552718933</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.171148852408583</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.130117228926622</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.509626660498177</v>
+        <v>0.09356476756437758</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.285365100631985</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.340316064587521</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.031413406211472</v>
+        <v>0.1829545386601047</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087687122635044</v>
-      </c>
-      <c r="C19" t="n">
-        <v>203138550501961.4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1049710599976667</v>
+        <v>0.1693497634052764</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9279356423484079</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.949844226281779</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9372197630249153</v>
+        <v>0.142645370577081</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4317312674897118</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5987018432688239</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4747262942884736</v>
+        <v>0.1910511344480791</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.640644802570025</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.114998671998678</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.305493840522338</v>
+        <v>0.02607622854359205</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165730195018552.1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>192002633449428.2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>992166179584646.9</v>
+        <v>0.1666399978178111</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>491467455496981.8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>169935349406970.3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>324953151157855.2</v>
+        <v>0.1470349401182034</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8778322236256703</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8049762745307432</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.31286771217765</v>
+        <v>0.231045902272084</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.456575733224327</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7581189797890264</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.836536352372665</v>
+        <v>0.1553733270304355</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.110951413425601</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8877247272034759</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.134800292312298</v>
+        <v>0.1415763890699931</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1784196868753700</v>
-      </c>
-      <c r="C28" t="n">
-        <v>218166693799058.1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>54075306391259.2</v>
+        <v>0.0790967401021908</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.338681081152955</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8869168979175951</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.596108323303992</v>
+        <v>0.1135063428891136</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.195780879088343</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7130947907239896</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.200450506762125</v>
+        <v>0.0784685735842085</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.229773137310215</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.996598605894475</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.511220448046959</v>
+        <v>0.1047151311404181</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6166232300244187</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4634402796540366</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.719417056533476</v>
+        <v>0.1460531120147376</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9599337469521517</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4782857442962537</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.8279794157278972</v>
+        <v>0.06371035525068634</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.147687022388479</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.565882431843186</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.30403062045958</v>
+        <v>0.153267148780198</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.030469513905103</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.95822442231283</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6.041822737941668</v>
+        <v>0.1896796380769287</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.374102082191474</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.345441565748519</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.919316039141253</v>
+        <v>0.1627760254215252</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.27579552697535</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.189010701429915</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.504525705488153</v>
+        <v>0.2315652917757198</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.765806012200965</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.511493724414667</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.07890087753412</v>
+        <v>0.1688805555000965</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.980278647631623</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.375043227576549</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.450781769618595</v>
+        <v>0.1143099709847656</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.63158456591899</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.359902788930809</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.675876467116016</v>
+        <v>0.1080078707510721</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7451182567806196</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.7440413184312984</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.63677240943146</v>
+        <v>0.1372718276996367</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9305651667574495</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.8255516503598647</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.657500393847558</v>
+        <v>0.1423461752460726</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.569867178227471</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.792813052687253</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1.918381930642994</v>
+        <v>0.1534492262738629</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.548067668773125</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.121529467916856</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.659862529468956</v>
+        <v>0.2167488850625486</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6425318799160674</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.696507719596452</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.7132372552015878</v>
+        <v>0.1109017702832875</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6438061427635137</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.6993859529182279</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.6945523678800563</v>
+        <v>0.2029091251093472</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.283935545432605</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.00738551808678</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.949984698169107</v>
+        <v>0.1627756862579561</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>142905031414938.4</v>
-      </c>
-      <c r="C48" t="n">
-        <v>164520832976799.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>314599416756721.9</v>
+        <v>0.05892956661548523</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.408885689417439</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.166010498816471</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.443119160666597</v>
+        <v>0.1649581211471212</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.575886893151237</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.232801750647869</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.587100465508064</v>
+        <v>0.09997115515621136</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9855650390540648</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.070771719549179</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9825725139176955</v>
+        <v>0.05064007589880336</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.924930943313651</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.950688055913617</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.713322080252099</v>
+        <v>0.07349785856618467</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.448846619568968</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.678188037574339</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.93117256179967</v>
+        <v>0.1561476801137444</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9170782662390893</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.083666040257662</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.018759365756994</v>
+        <v>0.1671167995694697</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7115013149720587</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.76135019612155</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.455761561726439</v>
+        <v>0.2031713837683291</v>
       </c>
     </row>
   </sheetData>
